--- a/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2021-01-28/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -1302,13 +1302,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>22048</v>
+        <v>22047</v>
       </c>
       <c r="D19" t="n">
         <v>6688</v>
       </c>
       <c r="E19" t="n">
-        <v>32930122</v>
+        <v>32930047</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
@@ -2220,13 +2220,13 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>33664</v>
+        <v>33662</v>
       </c>
       <c r="D37" t="n">
-        <v>10429</v>
+        <v>10428</v>
       </c>
       <c r="E37" t="n">
-        <v>49424802</v>
+        <v>49422067</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
@@ -3138,13 +3138,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>58151</v>
+        <v>58152</v>
       </c>
       <c r="D55" t="n">
         <v>17719</v>
       </c>
       <c r="E55" t="n">
-        <v>91763033</v>
+        <v>91763268</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3699,13 +3699,13 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>70595</v>
+        <v>70589</v>
       </c>
       <c r="D66" t="n">
         <v>22047</v>
       </c>
       <c r="E66" t="n">
-        <v>105656424</v>
+        <v>105647624</v>
       </c>
       <c r="F66" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
         <v>11590</v>
       </c>
       <c r="E78" t="n">
-        <v>57752067</v>
+        <v>57752877</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
@@ -4719,13 +4719,13 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>33634</v>
+        <v>33635</v>
       </c>
       <c r="D86" t="n">
-        <v>10338</v>
+        <v>10339</v>
       </c>
       <c r="E86" t="n">
-        <v>50613204</v>
+        <v>50614523</v>
       </c>
       <c r="F86" t="inlineStr">
         <is>
@@ -5235,7 +5235,7 @@
         <v>36592</v>
       </c>
       <c r="E96" t="n">
-        <v>195863757</v>
+        <v>195863097</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
@@ -5892,13 +5892,13 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>47407</v>
+        <v>47406</v>
       </c>
       <c r="D109" t="n">
         <v>13423</v>
       </c>
       <c r="E109" t="n">
-        <v>78516727</v>
+        <v>78515227</v>
       </c>
       <c r="F109" t="inlineStr">
         <is>
@@ -6402,13 +6402,13 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>23973</v>
+        <v>23970</v>
       </c>
       <c r="D119" t="n">
         <v>7467</v>
       </c>
       <c r="E119" t="n">
-        <v>35378648</v>
+        <v>35374148</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
@@ -8085,13 +8085,13 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>8673</v>
+        <v>8674</v>
       </c>
       <c r="D152" t="n">
         <v>2710</v>
       </c>
       <c r="E152" t="n">
-        <v>13786142</v>
+        <v>13787642</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
@@ -8442,13 +8442,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>25078</v>
+        <v>25079</v>
       </c>
       <c r="D159" t="n">
         <v>7854</v>
       </c>
       <c r="E159" t="n">
-        <v>39637990</v>
+        <v>39638350</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
@@ -10431,13 +10431,13 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>43322</v>
+        <v>43323</v>
       </c>
       <c r="D198" t="n">
         <v>13996</v>
       </c>
       <c r="E198" t="n">
-        <v>66259935</v>
+        <v>66251883</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
@@ -11451,13 +11451,13 @@
         </is>
       </c>
       <c r="C218" t="n">
-        <v>11755</v>
+        <v>11756</v>
       </c>
       <c r="D218" t="n">
         <v>3764</v>
       </c>
       <c r="E218" t="n">
-        <v>18688366</v>
+        <v>18688473</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
@@ -14511,13 +14511,13 @@
         </is>
       </c>
       <c r="C278" t="n">
-        <v>16970</v>
+        <v>16971</v>
       </c>
       <c r="D278" t="n">
         <v>4790</v>
       </c>
       <c r="E278" t="n">
-        <v>27497893</v>
+        <v>27498705</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -15429,13 +15429,13 @@
         </is>
       </c>
       <c r="C296" t="n">
-        <v>12510</v>
+        <v>12511</v>
       </c>
       <c r="D296" t="n">
         <v>4074</v>
       </c>
       <c r="E296" t="n">
-        <v>22202471</v>
+        <v>22202911</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>49201</v>
       </c>
       <c r="D305" t="n">
-        <v>15227</v>
+        <v>15228</v>
       </c>
       <c r="E305" t="n">
         <v>73268628</v>
@@ -16857,13 +16857,13 @@
         </is>
       </c>
       <c r="C324" t="n">
-        <v>28699</v>
+        <v>28698</v>
       </c>
       <c r="D324" t="n">
         <v>9040</v>
       </c>
       <c r="E324" t="n">
-        <v>42890591</v>
+        <v>42889341</v>
       </c>
       <c r="F324" t="inlineStr">
         <is>
@@ -18693,13 +18693,13 @@
         </is>
       </c>
       <c r="C360" t="n">
-        <v>33115</v>
+        <v>33114</v>
       </c>
       <c r="D360" t="n">
         <v>10429</v>
       </c>
       <c r="E360" t="n">
-        <v>49891241</v>
+        <v>49889741</v>
       </c>
       <c r="F360" t="inlineStr">
         <is>
@@ -20784,13 +20784,13 @@
         </is>
       </c>
       <c r="C401" t="n">
-        <v>97756</v>
+        <v>97757</v>
       </c>
       <c r="D401" t="n">
         <v>29686</v>
       </c>
       <c r="E401" t="n">
-        <v>145933173</v>
+        <v>145934805</v>
       </c>
       <c r="F401" t="inlineStr">
         <is>
@@ -21345,13 +21345,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>29336</v>
+        <v>29328</v>
       </c>
       <c r="D412" t="n">
         <v>8933</v>
       </c>
       <c r="E412" t="n">
-        <v>45394106</v>
+        <v>45383476</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -22671,13 +22671,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>59715</v>
+        <v>59716</v>
       </c>
       <c r="D438" t="n">
-        <v>15778</v>
+        <v>15779</v>
       </c>
       <c r="E438" t="n">
-        <v>96954689</v>
+        <v>96956189</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23079,13 +23079,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>108993</v>
+        <v>108992</v>
       </c>
       <c r="D446" t="n">
-        <v>26322</v>
+        <v>26324</v>
       </c>
       <c r="E446" t="n">
-        <v>180648503</v>
+        <v>180641979</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23538,13 +23538,13 @@
         </is>
       </c>
       <c r="C455" t="n">
-        <v>265641</v>
+        <v>265634</v>
       </c>
       <c r="D455" t="n">
-        <v>67476</v>
+        <v>67475</v>
       </c>
       <c r="E455" t="n">
-        <v>421241688</v>
+        <v>421218549</v>
       </c>
       <c r="F455" t="inlineStr">
         <is>
@@ -24405,13 +24405,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>68582</v>
+        <v>68580</v>
       </c>
       <c r="D472" t="n">
-        <v>18407</v>
+        <v>18408</v>
       </c>
       <c r="E472" t="n">
-        <v>108738449</v>
+        <v>108736485</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -24864,13 +24864,13 @@
         </is>
       </c>
       <c r="C481" t="n">
-        <v>121763</v>
+        <v>121760</v>
       </c>
       <c r="D481" t="n">
-        <v>26741</v>
+        <v>26742</v>
       </c>
       <c r="E481" t="n">
-        <v>212460706</v>
+        <v>212448611</v>
       </c>
       <c r="F481" t="inlineStr">
         <is>
@@ -25323,13 +25323,13 @@
         </is>
       </c>
       <c r="C490" t="n">
-        <v>94218</v>
+        <v>94214</v>
       </c>
       <c r="D490" t="n">
         <v>22809</v>
       </c>
       <c r="E490" t="n">
-        <v>153847830</v>
+        <v>153842183</v>
       </c>
       <c r="F490" t="inlineStr">
         <is>
@@ -25782,13 +25782,13 @@
         </is>
       </c>
       <c r="C499" t="n">
-        <v>71745</v>
+        <v>71741</v>
       </c>
       <c r="D499" t="n">
         <v>17096</v>
       </c>
       <c r="E499" t="n">
-        <v>120301721</v>
+        <v>120296901</v>
       </c>
       <c r="F499" t="inlineStr">
         <is>
@@ -26190,13 +26190,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>66754</v>
+        <v>66755</v>
       </c>
       <c r="D507" t="n">
-        <v>18642</v>
+        <v>18643</v>
       </c>
       <c r="E507" t="n">
-        <v>105583201</v>
+        <v>105583800</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -27873,13 +27873,13 @@
         </is>
       </c>
       <c r="C540" t="n">
-        <v>33558</v>
+        <v>33560</v>
       </c>
       <c r="D540" t="n">
-        <v>10533</v>
+        <v>10534</v>
       </c>
       <c r="E540" t="n">
-        <v>51726195</v>
+        <v>51736035</v>
       </c>
       <c r="F540" t="inlineStr">
         <is>
@@ -29148,13 +29148,13 @@
         </is>
       </c>
       <c r="C565" t="n">
-        <v>11318</v>
+        <v>11319</v>
       </c>
       <c r="D565" t="n">
-        <v>3572</v>
+        <v>3573</v>
       </c>
       <c r="E565" t="n">
-        <v>18204575</v>
+        <v>18206075</v>
       </c>
       <c r="F565" t="inlineStr">
         <is>
@@ -29505,13 +29505,13 @@
         </is>
       </c>
       <c r="C572" t="n">
-        <v>44266</v>
+        <v>44267</v>
       </c>
       <c r="D572" t="n">
-        <v>13804</v>
+        <v>13805</v>
       </c>
       <c r="E572" t="n">
-        <v>67917267</v>
+        <v>67917933</v>
       </c>
       <c r="F572" t="inlineStr">
         <is>
@@ -30423,13 +30423,13 @@
         </is>
       </c>
       <c r="C590" t="n">
-        <v>41003</v>
+        <v>41002</v>
       </c>
       <c r="D590" t="n">
         <v>13343</v>
       </c>
       <c r="E590" t="n">
-        <v>60348102</v>
+        <v>60347867</v>
       </c>
       <c r="F590" t="inlineStr">
         <is>
@@ -32514,13 +32514,13 @@
         </is>
       </c>
       <c r="C631" t="n">
-        <v>111161</v>
+        <v>111160</v>
       </c>
       <c r="D631" t="n">
         <v>34682</v>
       </c>
       <c r="E631" t="n">
-        <v>166159778</v>
+        <v>166159428</v>
       </c>
       <c r="F631" t="inlineStr">
         <is>
@@ -33585,13 +33585,13 @@
         </is>
       </c>
       <c r="C652" t="n">
-        <v>26088</v>
+        <v>26090</v>
       </c>
       <c r="D652" t="n">
         <v>8468</v>
       </c>
       <c r="E652" t="n">
-        <v>38442470</v>
+        <v>38444729</v>
       </c>
       <c r="F652" t="inlineStr">
         <is>
@@ -34452,13 +34452,13 @@
         </is>
       </c>
       <c r="C669" t="n">
-        <v>44258</v>
+        <v>44259</v>
       </c>
       <c r="D669" t="n">
-        <v>14319</v>
+        <v>14320</v>
       </c>
       <c r="E669" t="n">
-        <v>64154552</v>
+        <v>64155643</v>
       </c>
       <c r="F669" t="inlineStr">
         <is>
@@ -35370,13 +35370,13 @@
         </is>
       </c>
       <c r="C687" t="n">
-        <v>10283</v>
+        <v>10284</v>
       </c>
       <c r="D687" t="n">
-        <v>3367</v>
+        <v>3368</v>
       </c>
       <c r="E687" t="n">
-        <v>14072716</v>
+        <v>14072791</v>
       </c>
       <c r="F687" t="inlineStr">
         <is>
@@ -35676,13 +35676,13 @@
         </is>
       </c>
       <c r="C693" t="n">
-        <v>25100</v>
+        <v>25101</v>
       </c>
       <c r="D693" t="n">
-        <v>7661</v>
+        <v>7662</v>
       </c>
       <c r="E693" t="n">
-        <v>36647129</v>
+        <v>36647614</v>
       </c>
       <c r="F693" t="inlineStr">
         <is>
@@ -36543,13 +36543,13 @@
         </is>
       </c>
       <c r="C710" t="n">
-        <v>50173</v>
+        <v>50172</v>
       </c>
       <c r="D710" t="n">
         <v>15118</v>
       </c>
       <c r="E710" t="n">
-        <v>71963356</v>
+        <v>71962122</v>
       </c>
       <c r="F710" t="inlineStr">
         <is>
@@ -37359,13 +37359,13 @@
         </is>
       </c>
       <c r="C726" t="n">
-        <v>91329</v>
+        <v>91327</v>
       </c>
       <c r="D726" t="n">
         <v>27803</v>
       </c>
       <c r="E726" t="n">
-        <v>133672564</v>
+        <v>133670667</v>
       </c>
       <c r="F726" t="inlineStr">
         <is>
@@ -38538,7 +38538,7 @@
         <v>27143</v>
       </c>
       <c r="E749" t="n">
-        <v>126256567</v>
+        <v>126256866</v>
       </c>
       <c r="F749" t="inlineStr">
         <is>
@@ -39042,13 +39042,13 @@
         </is>
       </c>
       <c r="C759" t="n">
-        <v>11624</v>
+        <v>11625</v>
       </c>
       <c r="D759" t="n">
-        <v>3762</v>
+        <v>3763</v>
       </c>
       <c r="E759" t="n">
-        <v>17284227</v>
+        <v>17284624</v>
       </c>
       <c r="F759" t="inlineStr">
         <is>
@@ -39348,13 +39348,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>5406</v>
+        <v>5407</v>
       </c>
       <c r="D765" t="n">
         <v>1800</v>
       </c>
       <c r="E765" t="n">
-        <v>8778245</v>
+        <v>8778745</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>
@@ -40980,13 +40980,13 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>66461</v>
+        <v>66460</v>
       </c>
       <c r="D797" t="n">
-        <v>21676</v>
+        <v>21675</v>
       </c>
       <c r="E797" t="n">
-        <v>100767663</v>
+        <v>100767215</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>
@@ -42153,13 +42153,13 @@
         </is>
       </c>
       <c r="C820" t="n">
-        <v>19696</v>
+        <v>19697</v>
       </c>
       <c r="D820" t="n">
-        <v>6164</v>
+        <v>6165</v>
       </c>
       <c r="E820" t="n">
-        <v>30611963</v>
+        <v>30618101</v>
       </c>
       <c r="F820" t="inlineStr">
         <is>
@@ -43071,13 +43071,13 @@
         </is>
       </c>
       <c r="C838" t="n">
-        <v>13108</v>
+        <v>13109</v>
       </c>
       <c r="D838" t="n">
-        <v>4045</v>
+        <v>4046</v>
       </c>
       <c r="E838" t="n">
-        <v>20176478</v>
+        <v>20176940</v>
       </c>
       <c r="F838" t="inlineStr">
         <is>
@@ -43530,13 +43530,13 @@
         </is>
       </c>
       <c r="C847" t="n">
-        <v>108075</v>
+        <v>108076</v>
       </c>
       <c r="D847" t="n">
         <v>29724</v>
       </c>
       <c r="E847" t="n">
-        <v>164181601</v>
+        <v>164182835</v>
       </c>
       <c r="F847" t="inlineStr">
         <is>
@@ -44244,13 +44244,13 @@
         </is>
       </c>
       <c r="C861" t="n">
-        <v>134233</v>
+        <v>134231</v>
       </c>
       <c r="D861" t="n">
         <v>39112</v>
       </c>
       <c r="E861" t="n">
-        <v>201918433</v>
+        <v>201915733</v>
       </c>
       <c r="F861" t="inlineStr">
         <is>
@@ -44907,13 +44907,13 @@
         </is>
       </c>
       <c r="C874" t="n">
-        <v>18234</v>
+        <v>18236</v>
       </c>
       <c r="D874" t="n">
         <v>5203</v>
       </c>
       <c r="E874" t="n">
-        <v>29207727</v>
+        <v>29210227</v>
       </c>
       <c r="F874" t="inlineStr">
         <is>
@@ -45468,13 +45468,13 @@
         </is>
       </c>
       <c r="C885" t="n">
-        <v>85282</v>
+        <v>85283</v>
       </c>
       <c r="D885" t="n">
-        <v>26090</v>
+        <v>26091</v>
       </c>
       <c r="E885" t="n">
-        <v>125687534</v>
+        <v>125689469</v>
       </c>
       <c r="F885" t="inlineStr">
         <is>
@@ -45978,13 +45978,13 @@
         </is>
       </c>
       <c r="C895" t="n">
-        <v>43342</v>
+        <v>43340</v>
       </c>
       <c r="D895" t="n">
         <v>12998</v>
       </c>
       <c r="E895" t="n">
-        <v>63855858</v>
+        <v>63854196</v>
       </c>
       <c r="F895" t="inlineStr">
         <is>
